--- a/results/model_results.xlsx
+++ b/results/model_results.xlsx
@@ -413,10 +413,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -847,18 +847,18 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'model__n_neighbors': [3, 5, 7]}</t>
+          <t>{'model__n_neighbors': 5}</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8143712574850299</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7369860978207267</v>
+        <v>0.720996229973956</v>
       </c>
     </row>
     <row r="15">
@@ -878,18 +878,49 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>{'model__n_neighbors': 7}</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8143712574850299</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.7369860978207267</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>UnderSample</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>{'model__n_neighbors': [3, 5, 7]}</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>0.8095238095238095</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.720996229973956</v>
+      <c r="F16" t="n">
+        <v>0.7717391304347826</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6199000544466472</v>
       </c>
     </row>
   </sheetData>
